--- a/Result/LSTM Multi/Manufacturing/AUS.xlsx
+++ b/Result/LSTM Multi/Manufacturing/AUS.xlsx
@@ -636,7 +636,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>8.470633506774902</v>
+        <v>8.55130672454834</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +644,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>8.383398056030273</v>
+        <v>8.50135612487793</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +652,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>8.322076797485352</v>
+        <v>8.319231986999512</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +660,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>8.257097244262695</v>
+        <v>8.202404975891113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>8.038456916809082</v>
+        <v>7.933788299560547</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +974,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>12.18587398529053</v>
+        <v>11.83984470367432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -982,7 +982,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>12.16520500183105</v>
+        <v>11.73642158508301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -990,7 +990,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>12.32701683044434</v>
+        <v>11.5283784866333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -998,7 +998,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>12.71389961242676</v>
+        <v>11.75119876861572</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>13.51281356811523</v>
+        <v>12.62445545196533</v>
       </c>
     </row>
   </sheetData>
